--- a/medicine/Enfance/Cache-cœur/Cache-cœur.xlsx
+++ b/medicine/Enfance/Cache-cœur/Cache-cœur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cache-c%C5%93ur</t>
+          <t>Cache-cœur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un cache-cœur est une sorte de gilet dont le devant est composé de deux parties triangulaires terminées chacune par un cordon fixé à la pointe. Il se ferme en superposant ces parties l'une sur l'autre, en tirant les deux cordons autour du buste puis en nouant dans le dos ou sur le côté, suivant leur longueur.
-Il est utilisé en layette[1]. 
+Il est utilisé en layette. 
 À l'origine, le vêtement cache-cœur était porté par les danseuses afin de maintenir leurs muscles chauds entre deux représentations. Depuis lors, le vêtement cache-cœur s'est généralisé et existe maintenant sous différentes formes et matières. C'est un article moulant au niveau de la poitrine qui la met en valeur sans être vulgaire. (source)
 </t>
         </is>
